--- a/Assets/Resources/MasterData/ConditionData.xlsx
+++ b/Assets/Resources/MasterData/ConditionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F16E11-873B-466E-9E86-6C9AFCE0D695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F8D1E-F09B-4255-AB2C-C9882A368D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -292,6 +292,26 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位が1位</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位が最下位でない</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -648,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -704,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B24" si="0">C3+400</f>
+        <f t="shared" ref="B3:B26" si="0">C3+400</f>
         <v>401</v>
       </c>
       <c r="C3" s="3">
@@ -936,11 +956,10 @@
         <v>413</v>
       </c>
       <c r="C15" s="3">
-        <f>VLOOKUP(D15,reference!A:B,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -959,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -978,10 +997,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -989,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B18" si="1">C18+400</f>
         <v>416</v>
       </c>
       <c r="C18" s="3">
@@ -997,10 +1016,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1016,10 +1035,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1054,10 @@
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1054,10 +1073,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1073,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1111,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1111,9 +1130,47 @@
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="C25" s="3">
+        <f>VLOOKUP(D25,reference!A:B,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="C26" s="3">
+        <f>VLOOKUP(D26,reference!A:B,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1127,7 +1184,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D24</xm:sqref>
+          <xm:sqref>D2:D26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1137,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E055CA17-7598-452A-9350-BF6BFB03C2B0}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1255,7 +1312,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1263,7 +1320,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1271,7 +1328,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1279,7 +1336,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1287,7 +1344,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1295,7 +1352,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1303,7 +1360,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1311,7 +1368,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1319,7 +1376,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1327,10 +1384,26 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/ConditionData.xlsx
+++ b/Assets/Resources/MasterData/ConditionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F8D1E-F09B-4255-AB2C-C9882A368D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F37E44-C1E2-4060-8EC6-68C6124537EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -716,7 +716,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -830,7 +830,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
